--- a/sites_ps.xlsx
+++ b/sites_ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Analyse_surfacique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8045B202-DEA9-45FD-87DF-4866AF157C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F38A114-08D0-423F-AC41-DC0517FD3D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="579">
   <si>
     <t>Site</t>
   </si>
@@ -1603,6 +1603,165 @@
   </si>
   <si>
     <t>1.210830069901765</t>
+  </si>
+  <si>
+    <t>mimizan</t>
+  </si>
+  <si>
+    <t>morcenx la nouvelle</t>
+  </si>
+  <si>
+    <t>lit et mixe</t>
+  </si>
+  <si>
+    <t>saint sever</t>
+  </si>
+  <si>
+    <t>dax</t>
+  </si>
+  <si>
+    <t>PEYREHORADE</t>
+  </si>
+  <si>
+    <t>PEYREHORADE soumo</t>
+  </si>
+  <si>
+    <t>43.74641770860991</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.33285379210912</t>
+  </si>
+  <si>
+    <t>44.19725528555141</t>
+  </si>
+  <si>
+    <t>-1.2291033861765632</t>
+  </si>
+  <si>
+    <t>44.02969680821508</t>
+  </si>
+  <si>
+    <t>-0.9227099943452951</t>
+  </si>
+  <si>
+    <t>44.02549860293042</t>
+  </si>
+  <si>
+    <t>-1.2583691579531584</t>
+  </si>
+  <si>
+    <t>43.7502878518836</t>
+  </si>
+  <si>
+    <t>-0.568674355747199</t>
+  </si>
+  <si>
+    <t>43.70987517571523</t>
+  </si>
+  <si>
+    <t>-1.0441713878412118</t>
+  </si>
+  <si>
+    <t>43.5512456094283</t>
+  </si>
+  <si>
+    <t>-1.1301652172450665</t>
+  </si>
+  <si>
+    <t>43.55076012419594</t>
+  </si>
+  <si>
+    <t>-1.1299851875293643</t>
+  </si>
+  <si>
+    <t>soustons</t>
+  </si>
+  <si>
+    <t>Soustons</t>
+  </si>
+  <si>
+    <t>Mimizan</t>
+  </si>
+  <si>
+    <t>Morcenx-la-Nouvelle</t>
+  </si>
+  <si>
+    <t>Linxe</t>
+  </si>
+  <si>
+    <t>Saint-Sever</t>
+  </si>
+  <si>
+    <t>Saint-Paul-lès-Dax</t>
+  </si>
+  <si>
+    <t>Guiche</t>
+  </si>
+  <si>
+    <t>4.111690</t>
+  </si>
+  <si>
+    <t>0.274506</t>
+  </si>
+  <si>
+    <t>1.410082</t>
+  </si>
+  <si>
+    <t>13.265380</t>
+  </si>
+  <si>
+    <t>3.770054</t>
+  </si>
+  <si>
+    <t>1.871864</t>
+  </si>
+  <si>
+    <t>8.494906</t>
+  </si>
+  <si>
+    <t>8.480260</t>
+  </si>
+  <si>
+    <t>43.771091126263514</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.2948007929781047</t>
+  </si>
+  <si>
+    <t>44.1948017922608</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.2295049995137841</t>
+  </si>
+  <si>
+    <t>44.03143778431751</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.9052865619625207</t>
+  </si>
+  <si>
+    <t>43.907624274812235</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.2321315191950484</t>
+  </si>
+  <si>
+    <t>43.76397390663459</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.5258372653500577</t>
+  </si>
+  <si>
+    <t>43.7263292279978</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.03918106238464</t>
+  </si>
+  <si>
+    <t>43.512432834195224</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.2207089798077064</t>
   </si>
 </sst>
 </file>
@@ -1932,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F5:L120"/>
+  <dimension ref="F5:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="H103" workbookViewId="0">
+      <selection activeCell="L120" sqref="L120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1961,10 +2120,10 @@
       <c r="I5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>445</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -1984,10 +2143,10 @@
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>447</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -2007,10 +2166,10 @@
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>449</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -2030,10 +2189,10 @@
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>451</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -2053,10 +2212,10 @@
       <c r="I9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>449</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -2076,10 +2235,10 @@
       <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>453</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -2099,10 +2258,10 @@
       <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>455</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -2116,6 +2275,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="6:12" x14ac:dyDescent="0.3">
@@ -2131,10 +2292,10 @@
       <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>457</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -2154,10 +2315,10 @@
       <c r="I14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>459</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -2177,10 +2338,10 @@
       <c r="I15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>455</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -2200,10 +2361,10 @@
       <c r="I16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>451</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -2223,10 +2384,10 @@
       <c r="I17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>447</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -2246,10 +2407,10 @@
       <c r="I18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1" t="s">
         <v>461</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -2269,10 +2430,10 @@
       <c r="I19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1" t="s">
         <v>455</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -2292,10 +2453,10 @@
       <c r="I20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1" t="s">
         <v>463</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -2315,10 +2476,10 @@
       <c r="I21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="1" t="s">
         <v>465</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -2338,10 +2499,10 @@
       <c r="I22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>467</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -2361,10 +2522,10 @@
       <c r="I23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1" t="s">
         <v>469</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -2384,10 +2545,10 @@
       <c r="I24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1" t="s">
         <v>471</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -2407,10 +2568,10 @@
       <c r="I25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="1" t="s">
         <v>463</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -2430,10 +2591,10 @@
       <c r="I26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="1" t="s">
         <v>455</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -2453,10 +2614,10 @@
       <c r="I27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="1" t="s">
         <v>473</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -2476,10 +2637,10 @@
       <c r="I28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="1" t="s">
         <v>463</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -2499,10 +2660,10 @@
       <c r="I29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="1" t="s">
         <v>475</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -2522,10 +2683,10 @@
       <c r="I30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="1" t="s">
         <v>475</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -2545,10 +2706,10 @@
       <c r="I31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="1" t="s">
         <v>463</v>
       </c>
       <c r="L31" s="1" t="s">
@@ -2568,10 +2729,10 @@
       <c r="I32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="1" t="s">
         <v>449</v>
       </c>
       <c r="L32" s="1" t="s">
@@ -2591,10 +2752,10 @@
       <c r="I33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="1" t="s">
         <v>477</v>
       </c>
       <c r="L33" s="1" t="s">
@@ -2614,10 +2775,10 @@
       <c r="I34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="1" t="s">
         <v>479</v>
       </c>
       <c r="L34" s="1" t="s">
@@ -2637,10 +2798,10 @@
       <c r="I35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="1" t="s">
         <v>447</v>
       </c>
       <c r="L35" s="1" t="s">
@@ -2660,10 +2821,10 @@
       <c r="I36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="1" t="s">
         <v>481</v>
       </c>
       <c r="L36" s="1" t="s">
@@ -2683,10 +2844,10 @@
       <c r="I37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="1" t="s">
         <v>463</v>
       </c>
       <c r="L37" s="1" t="s">
@@ -2706,10 +2867,10 @@
       <c r="I38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="1" t="s">
         <v>475</v>
       </c>
       <c r="L38" s="1" t="s">
@@ -2729,10 +2890,10 @@
       <c r="I39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="1" t="s">
         <v>475</v>
       </c>
       <c r="L39" s="1" t="s">
@@ -2752,10 +2913,10 @@
       <c r="I40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="1" t="s">
         <v>475</v>
       </c>
       <c r="L40" s="1" t="s">
@@ -2775,10 +2936,10 @@
       <c r="I41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="1" t="s">
         <v>455</v>
       </c>
       <c r="L41" s="1" t="s">
@@ -2798,10 +2959,10 @@
       <c r="I42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="1" t="s">
         <v>449</v>
       </c>
       <c r="L42" s="1" t="s">
@@ -2821,10 +2982,10 @@
       <c r="I43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="1" t="s">
         <v>483</v>
       </c>
       <c r="L43" s="1" t="s">
@@ -2844,10 +3005,10 @@
       <c r="I44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="1" t="s">
         <v>467</v>
       </c>
       <c r="L44" s="1" t="s">
@@ -2867,10 +3028,10 @@
       <c r="I45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="1" t="s">
         <v>485</v>
       </c>
       <c r="L45" s="1" t="s">
@@ -2890,10 +3051,10 @@
       <c r="I46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="1" t="s">
         <v>481</v>
       </c>
       <c r="L46" s="1" t="s">
@@ -2913,10 +3074,10 @@
       <c r="I47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="1" t="s">
         <v>463</v>
       </c>
       <c r="L47" s="1" t="s">
@@ -2936,10 +3097,10 @@
       <c r="I48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="1" t="s">
         <v>455</v>
       </c>
       <c r="L48" s="1" t="s">
@@ -2959,10 +3120,10 @@
       <c r="I49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="1" t="s">
         <v>455</v>
       </c>
       <c r="L49" s="1" t="s">
@@ -2982,10 +3143,10 @@
       <c r="I50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="1" t="s">
         <v>473</v>
       </c>
       <c r="L50" s="1" t="s">
@@ -3005,10 +3166,10 @@
       <c r="I51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="1" t="s">
         <v>477</v>
       </c>
       <c r="L51" s="1" t="s">
@@ -3028,10 +3189,10 @@
       <c r="I52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="1" t="s">
         <v>449</v>
       </c>
       <c r="L52" s="1" t="s">
@@ -3051,10 +3212,10 @@
       <c r="I53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="1" t="s">
         <v>487</v>
       </c>
       <c r="L53" s="1" t="s">
@@ -3074,10 +3235,10 @@
       <c r="I54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="1" t="s">
         <v>481</v>
       </c>
       <c r="L54" s="1" t="s">
@@ -3097,10 +3258,10 @@
       <c r="I55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="1" t="s">
         <v>489</v>
       </c>
       <c r="L55" s="1" t="s">
@@ -3120,10 +3281,10 @@
       <c r="I56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="1" t="s">
         <v>489</v>
       </c>
       <c r="L56" s="1" t="s">
@@ -3143,10 +3304,10 @@
       <c r="I57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="1" t="s">
         <v>491</v>
       </c>
       <c r="L57" s="1" t="s">
@@ -3166,10 +3327,10 @@
       <c r="I58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="1" t="s">
         <v>449</v>
       </c>
       <c r="L58" s="1" t="s">
@@ -3189,10 +3350,10 @@
       <c r="I59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="1" t="s">
         <v>493</v>
       </c>
       <c r="L59" s="1" t="s">
@@ -3212,10 +3373,10 @@
       <c r="I60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="1" t="s">
         <v>495</v>
       </c>
       <c r="L60" s="1" t="s">
@@ -3235,10 +3396,10 @@
       <c r="I61" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="1" t="s">
         <v>497</v>
       </c>
       <c r="L61" s="1" t="s">
@@ -3258,10 +3419,10 @@
       <c r="I62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="1" t="s">
         <v>499</v>
       </c>
       <c r="L62" s="1" t="s">
@@ -3281,10 +3442,10 @@
       <c r="I63" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="1" t="s">
         <v>489</v>
       </c>
       <c r="L63" s="1" t="s">
@@ -3304,10 +3465,10 @@
       <c r="I64" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="1" t="s">
         <v>483</v>
       </c>
       <c r="L64" s="1" t="s">
@@ -3327,10 +3488,10 @@
       <c r="I65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="1" t="s">
         <v>451</v>
       </c>
       <c r="L65" s="1" t="s">
@@ -3350,10 +3511,10 @@
       <c r="I66" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="1" t="s">
         <v>465</v>
       </c>
       <c r="L66" s="1" t="s">
@@ -3373,10 +3534,10 @@
       <c r="I67" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="1" t="s">
         <v>501</v>
       </c>
       <c r="L67" s="1" t="s">
@@ -3396,10 +3557,10 @@
       <c r="I68" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="1" t="s">
         <v>473</v>
       </c>
       <c r="L68" s="1" t="s">
@@ -3419,10 +3580,10 @@
       <c r="I69" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="1" t="s">
         <v>473</v>
       </c>
       <c r="L69" s="1" t="s">
@@ -3442,10 +3603,10 @@
       <c r="I70" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="1" t="s">
         <v>503</v>
       </c>
       <c r="L70" s="1" t="s">
@@ -3465,10 +3626,10 @@
       <c r="I71" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" s="1" t="s">
         <v>481</v>
       </c>
       <c r="L71" s="1" t="s">
@@ -3488,10 +3649,10 @@
       <c r="I72" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="1" t="s">
         <v>481</v>
       </c>
       <c r="L72" s="1" t="s">
@@ -3511,10 +3672,10 @@
       <c r="I73" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="1" t="s">
         <v>475</v>
       </c>
       <c r="L73" s="1" t="s">
@@ -3534,10 +3695,10 @@
       <c r="I74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" s="1" t="s">
         <v>475</v>
       </c>
       <c r="L74" s="1" t="s">
@@ -3557,10 +3718,10 @@
       <c r="I75" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" s="1" t="s">
         <v>501</v>
       </c>
       <c r="L75" s="1" t="s">
@@ -3580,10 +3741,10 @@
       <c r="I76" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" s="1" t="s">
         <v>483</v>
       </c>
       <c r="L76" s="1" t="s">
@@ -3603,10 +3764,10 @@
       <c r="I77" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="1" t="s">
         <v>455</v>
       </c>
       <c r="L77" s="1" t="s">
@@ -3626,10 +3787,10 @@
       <c r="I78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="1" t="s">
         <v>447</v>
       </c>
       <c r="L78" s="1" t="s">
@@ -3649,10 +3810,10 @@
       <c r="I79" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="1" t="s">
         <v>505</v>
       </c>
       <c r="L79" s="1" t="s">
@@ -3666,6 +3827,8 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
       <c r="L80" s="1"/>
     </row>
     <row r="81" spans="6:12" x14ac:dyDescent="0.3">
@@ -3681,10 +3844,10 @@
       <c r="I81" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="1" t="s">
         <v>465</v>
       </c>
       <c r="L81" s="1" t="s">
@@ -3704,10 +3867,10 @@
       <c r="I82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="1" t="s">
         <v>451</v>
       </c>
       <c r="L82" s="1" t="s">
@@ -3727,10 +3890,10 @@
       <c r="I83" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" s="1" t="s">
         <v>507</v>
       </c>
       <c r="L83" s="1" t="s">
@@ -3750,10 +3913,10 @@
       <c r="I84" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" s="1" t="s">
         <v>487</v>
       </c>
       <c r="L84" s="1" t="s">
@@ -3773,10 +3936,10 @@
       <c r="I85" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J85" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K85" s="1" t="s">
         <v>501</v>
       </c>
       <c r="L85" s="1" t="s">
@@ -3796,10 +3959,10 @@
       <c r="I86" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86" s="1" t="s">
         <v>481</v>
       </c>
       <c r="L86" s="1" t="s">
@@ -3819,10 +3982,10 @@
       <c r="I87" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87" s="1" t="s">
         <v>473</v>
       </c>
       <c r="L87" s="1" t="s">
@@ -3842,10 +4005,10 @@
       <c r="I88" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" s="1" t="s">
         <v>501</v>
       </c>
       <c r="L88" s="1" t="s">
@@ -3865,10 +4028,10 @@
       <c r="I89" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" s="1" t="s">
         <v>473</v>
       </c>
       <c r="L89" s="1" t="s">
@@ -3888,10 +4051,10 @@
       <c r="I90" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90" s="1" t="s">
         <v>465</v>
       </c>
       <c r="L90" s="1" t="s">
@@ -3911,10 +4074,10 @@
       <c r="I91" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" s="1" t="s">
         <v>509</v>
       </c>
       <c r="L91" s="1" t="s">
@@ -3934,10 +4097,10 @@
       <c r="I92" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92" s="1" t="s">
         <v>511</v>
       </c>
       <c r="L92" s="1" t="s">
@@ -3957,10 +4120,10 @@
       <c r="I93" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93" s="1" t="s">
         <v>513</v>
       </c>
       <c r="L93" s="1" t="s">
@@ -3980,10 +4143,10 @@
       <c r="I94" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K94" s="1" t="s">
         <v>469</v>
       </c>
       <c r="L94" s="1" t="s">
@@ -4003,10 +4166,10 @@
       <c r="I95" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K95" s="1" t="s">
         <v>505</v>
       </c>
       <c r="L95" s="1" t="s">
@@ -4026,10 +4189,10 @@
       <c r="I96" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="K96" t="s">
+      <c r="K96" s="1" t="s">
         <v>467</v>
       </c>
       <c r="L96" s="1" t="s">
@@ -4049,10 +4212,10 @@
       <c r="I97" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="K97" t="s">
+      <c r="K97" s="1" t="s">
         <v>515</v>
       </c>
       <c r="L97" s="1" t="s">
@@ -4072,10 +4235,10 @@
       <c r="I98" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K98" s="1" t="s">
         <v>481</v>
       </c>
       <c r="L98" s="1" t="s">
@@ -4095,10 +4258,10 @@
       <c r="I99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K99" s="1" t="s">
         <v>447</v>
       </c>
       <c r="L99" s="1" t="s">
@@ -4118,10 +4281,10 @@
       <c r="I100" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K100" s="1" t="s">
         <v>455</v>
       </c>
       <c r="L100" s="1" t="s">
@@ -4141,10 +4304,10 @@
       <c r="I101" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K101" s="1" t="s">
         <v>467</v>
       </c>
       <c r="L101" s="1" t="s">
@@ -4164,10 +4327,10 @@
       <c r="I102" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" s="1" t="s">
         <v>457</v>
       </c>
       <c r="L102" s="1" t="s">
@@ -4187,10 +4350,10 @@
       <c r="I103" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K103" s="1" t="s">
         <v>449</v>
       </c>
       <c r="L103" s="1" t="s">
@@ -4210,10 +4373,10 @@
       <c r="I104" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K104" s="1" t="s">
         <v>517</v>
       </c>
       <c r="L104" s="1" t="s">
@@ -4233,10 +4396,10 @@
       <c r="I105" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="K105" t="s">
+      <c r="K105" s="1" t="s">
         <v>519</v>
       </c>
       <c r="L105" s="1" t="s">
@@ -4256,10 +4419,10 @@
       <c r="I106" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K106" s="1" t="s">
         <v>521</v>
       </c>
       <c r="L106" s="1" t="s">
@@ -4279,10 +4442,10 @@
       <c r="I107" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J107" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="K107" t="s">
+      <c r="K107" s="1" t="s">
         <v>517</v>
       </c>
       <c r="L107" s="1" t="s">
@@ -4302,10 +4465,10 @@
       <c r="I108" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="K108" t="s">
+      <c r="K108" s="1" t="s">
         <v>485</v>
       </c>
       <c r="L108" s="1" t="s">
@@ -4325,10 +4488,10 @@
       <c r="I109" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J109" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K109" t="s">
+      <c r="K109" s="1" t="s">
         <v>455</v>
       </c>
       <c r="L109" s="1" t="s">
@@ -4348,10 +4511,10 @@
       <c r="I110" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="K110" t="s">
+      <c r="K110" s="1" t="s">
         <v>477</v>
       </c>
       <c r="L110" s="1" t="s">
@@ -4371,10 +4534,10 @@
       <c r="I111" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J111" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="K111" t="s">
+      <c r="K111" s="1" t="s">
         <v>523</v>
       </c>
       <c r="L111" s="1" t="s">
@@ -4388,6 +4551,8 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
       <c r="L112" s="1"/>
     </row>
     <row r="113" spans="6:12" x14ac:dyDescent="0.3">
@@ -4397,6 +4562,8 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="6:12" x14ac:dyDescent="0.3">
@@ -4412,10 +4579,10 @@
       <c r="I114" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J114" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="K114" t="s">
+      <c r="K114" s="1" t="s">
         <v>523</v>
       </c>
       <c r="L114" s="1" t="s">
@@ -4429,6 +4596,8 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="6:12" x14ac:dyDescent="0.3">
@@ -4444,10 +4613,10 @@
       <c r="I116" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="K116" t="s">
+      <c r="K116" s="1" t="s">
         <v>525</v>
       </c>
       <c r="L116" s="1" t="s">
@@ -4467,10 +4636,10 @@
       <c r="I117" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K117" s="1" t="s">
         <v>489</v>
       </c>
       <c r="L117" s="1" t="s">
@@ -4484,6 +4653,8 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
       <c r="L118" s="1"/>
     </row>
     <row r="119" spans="6:12" x14ac:dyDescent="0.3">
@@ -4493,6 +4664,8 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
       <c r="L119" s="1"/>
     </row>
     <row r="120" spans="6:12" x14ac:dyDescent="0.3">
@@ -4502,7 +4675,193 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
       <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F121" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J121" t="s">
+        <v>565</v>
+      </c>
+      <c r="K121" t="s">
+        <v>566</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="122" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F122" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J122" t="s">
+        <v>567</v>
+      </c>
+      <c r="K122" t="s">
+        <v>568</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="123" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F123" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J123" t="s">
+        <v>569</v>
+      </c>
+      <c r="K123" t="s">
+        <v>570</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="124" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F124" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J124" t="s">
+        <v>571</v>
+      </c>
+      <c r="K124" t="s">
+        <v>572</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="125" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F125" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J125" t="s">
+        <v>573</v>
+      </c>
+      <c r="K125" t="s">
+        <v>574</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="126" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F126" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J126" t="s">
+        <v>575</v>
+      </c>
+      <c r="K126" t="s">
+        <v>576</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="127" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F127" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="J127" t="s">
+        <v>577</v>
+      </c>
+      <c r="K127" t="s">
+        <v>578</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="128" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F128" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="J128" t="s">
+        <v>577</v>
+      </c>
+      <c r="K128" t="s">
+        <v>578</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>564</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
